--- a/Makie_Questions.xlsx
+++ b/Makie_Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominiccalleja/GCA_App/GCA_engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8236FA-603D-D345-AB79-1A097FA418C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C3C37-6C87-2641-A0F2-2F7C257C8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{D3E060A1-2AB8-F048-B1EB-8CED33EEE42D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Qid</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>&gt;8 weeks</t>
+  </si>
+  <si>
+    <t>Dependant</t>
   </si>
 </sst>
 </file>
@@ -728,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3C665-8C67-8A4B-ABC6-3E7E68038EC4}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
